--- a/AuteTest/case_file/test-case.xlsx
+++ b/AuteTest/case_file/test-case.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_project\2017\AuteTest\case_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesq\Desktop\[InterfaceTest]\AuteTest_v20171113\AuteTest\case_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>请求URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,13 +190,25 @@
   </si>
   <si>
     <t>success': True&amp;rsa公钥获取成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -595,11 +607,11 @@
     <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="36" style="1" customWidth="1"/>
     <col min="6" max="6" width="41" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="7" max="8" width="14" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -621,8 +633,11 @@
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -644,8 +659,11 @@
       <c r="G2" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -667,8 +685,11 @@
       <c r="G3" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -690,8 +711,11 @@
       <c r="G4" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -713,8 +737,11 @@
       <c r="G5" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -736,8 +763,11 @@
       <c r="G6" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -758,6 +788,9 @@
       </c>
       <c r="G7" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
